--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_1_ABCD/AB/15/seed2/result_data_RandomForest.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_1_ABCD/AB/15/seed2/result_data_RandomForest.xlsx
@@ -471,7 +471,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>-22.1193</v>
+        <v>-22.15480000000001</v>
       </c>
       <c r="B3" t="n">
         <v>4.03</v>
@@ -625,7 +625,7 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>-21.9807</v>
+        <v>-21.86869999999999</v>
       </c>
       <c r="B14" t="n">
         <v>4.04</v>
@@ -723,7 +723,7 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>-20.12919999999998</v>
+        <v>-20.01839999999998</v>
       </c>
       <c r="B21" t="n">
         <v>9.52</v>
@@ -740,7 +740,7 @@
         <v>-20.06</v>
       </c>
       <c r="B22" t="n">
-        <v>9.663899999999995</v>
+        <v>9.729799999999997</v>
       </c>
       <c r="C22" t="n">
         <v>-15.07</v>
@@ -751,7 +751,7 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>-20.17859999999997</v>
+        <v>-19.95379999999998</v>
       </c>
       <c r="B23" t="n">
         <v>7.87</v>
@@ -768,7 +768,7 @@
         <v>-20.85</v>
       </c>
       <c r="B24" t="n">
-        <v>5.715800000000001</v>
+        <v>5.959700000000001</v>
       </c>
       <c r="C24" t="n">
         <v>-10.44</v>
@@ -779,7 +779,7 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>-21.8646</v>
+        <v>-21.8275</v>
       </c>
       <c r="B25" t="n">
         <v>5.23</v>
@@ -793,7 +793,7 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>-21.03199999999997</v>
+        <v>-21.05459999999997</v>
       </c>
       <c r="B26" t="n">
         <v>6.56</v>
@@ -824,7 +824,7 @@
         <v>-21.74</v>
       </c>
       <c r="B28" t="n">
-        <v>5.6825</v>
+        <v>5.748100000000002</v>
       </c>
       <c r="C28" t="n">
         <v>-11.8</v>
@@ -835,7 +835,7 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>-20.91949999999997</v>
+        <v>-21.02869999999997</v>
       </c>
       <c r="B29" t="n">
         <v>7.52</v>
@@ -936,7 +936,7 @@
         <v>-18.53</v>
       </c>
       <c r="B36" t="n">
-        <v>9.335600000000008</v>
+        <v>9.322500000000009</v>
       </c>
       <c r="C36" t="n">
         <v>-10.09</v>
@@ -1062,7 +1062,7 @@
         <v>-22.15</v>
       </c>
       <c r="B45" t="n">
-        <v>5.163500000000004</v>
+        <v>5.259800000000005</v>
       </c>
       <c r="C45" t="n">
         <v>-11</v>
@@ -1104,7 +1104,7 @@
         <v>-21.86</v>
       </c>
       <c r="B48" t="n">
-        <v>6.512100000000001</v>
+        <v>6.108199999999999</v>
       </c>
       <c r="C48" t="n">
         <v>-10.86</v>
@@ -1118,7 +1118,7 @@
         <v>-22.14</v>
       </c>
       <c r="B49" t="n">
-        <v>5.396999999999996</v>
+        <v>5.719099999999995</v>
       </c>
       <c r="C49" t="n">
         <v>-12.11</v>
@@ -1160,7 +1160,7 @@
         <v>-21.69</v>
       </c>
       <c r="B52" t="n">
-        <v>5.2883</v>
+        <v>5.2044</v>
       </c>
       <c r="C52" t="n">
         <v>-14.35</v>
@@ -1171,10 +1171,10 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>-21.90989999999998</v>
+        <v>-21.91579999999999</v>
       </c>
       <c r="B53" t="n">
-        <v>6.272600000000004</v>
+        <v>5.433299999999997</v>
       </c>
       <c r="C53" t="n">
         <v>-12.98</v>
@@ -1188,7 +1188,7 @@
         <v>-22.23</v>
       </c>
       <c r="B54" t="n">
-        <v>4.844700000000005</v>
+        <v>4.833700000000002</v>
       </c>
       <c r="C54" t="n">
         <v>-13.87</v>
@@ -1227,7 +1227,7 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>-22.38950000000002</v>
+        <v>-22.41540000000002</v>
       </c>
       <c r="B57" t="n">
         <v>4.82</v>
@@ -1255,7 +1255,7 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>-21.9998</v>
+        <v>-21.97209999999999</v>
       </c>
       <c r="B59" t="n">
         <v>4.58</v>
@@ -1395,7 +1395,7 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>-21.61569999999999</v>
+        <v>-21.6585</v>
       </c>
       <c r="B69" t="n">
         <v>4.98</v>
@@ -1412,7 +1412,7 @@
         <v>-21.91</v>
       </c>
       <c r="B70" t="n">
-        <v>7.353300000000002</v>
+        <v>7.107300000000001</v>
       </c>
       <c r="C70" t="n">
         <v>-9.9</v>
@@ -1535,7 +1535,7 @@
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>-20.33970000000001</v>
+        <v>-20.20090000000001</v>
       </c>
       <c r="B79" t="n">
         <v>8.949999999999999</v>
@@ -1591,7 +1591,7 @@
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>-21.75259999999999</v>
+        <v>-21.824</v>
       </c>
       <c r="B83" t="n">
         <v>5.84</v>
@@ -1636,7 +1636,7 @@
         <v>-22.27</v>
       </c>
       <c r="B86" t="n">
-        <v>5.034700000000004</v>
+        <v>5.312200000000002</v>
       </c>
       <c r="C86" t="n">
         <v>-14.09</v>
@@ -1650,7 +1650,7 @@
         <v>-23.05</v>
       </c>
       <c r="B87" t="n">
-        <v>5.407799999999996</v>
+        <v>5.709199999999999</v>
       </c>
       <c r="C87" t="n">
         <v>-15.19</v>
@@ -1678,7 +1678,7 @@
         <v>-22.69</v>
       </c>
       <c r="B89" t="n">
-        <v>4.671399999999999</v>
+        <v>4.639999999999995</v>
       </c>
       <c r="C89" t="n">
         <v>-14.65</v>
@@ -1703,7 +1703,7 @@
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>-20.46269999999998</v>
+        <v>-20.55419999999999</v>
       </c>
       <c r="B91" t="n">
         <v>7.49</v>
@@ -1731,7 +1731,7 @@
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>-21.32210000000001</v>
+        <v>-21.31630000000001</v>
       </c>
       <c r="B93" t="n">
         <v>4.28</v>
@@ -1846,7 +1846,7 @@
         <v>-21.4</v>
       </c>
       <c r="B101" t="n">
-        <v>4.817700000000001</v>
+        <v>4.291799999999999</v>
       </c>
       <c r="C101" t="n">
         <v>-15.77</v>
@@ -1871,7 +1871,7 @@
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>-21.7349</v>
+        <v>-21.7573</v>
       </c>
       <c r="B103" t="n">
         <v>5.09</v>
